--- a/pred_ohlcv/54_21/2019-11-14 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-14 KNC ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>-49760.7026</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-50255.21079999999</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-50226.21149999999</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-50236.38289999999</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-43420.70409999999</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-41086.78149999999</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-41086.78149999999</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-44436.78149999999</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-44077.98999999999</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-43169.85389999999</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-43903.07339999999</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-43500.06169999998</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-43181.55359999998</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-59633.52449999998</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-59628.87329999998</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-58495.73639999999</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-63128.51089999999</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-62930.37899999999</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-63485.52129999999</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-63485.52129999999</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-63237.52129999999</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-63896.18729999998</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-59064.48099999999</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-52548.08139999999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-50572.89309999999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-50572.89309999999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-36163.68769999999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-36163.68769999999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-36163.68769999999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-36163.68769999999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-38613.99299999999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-37147.82829999999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>20192.43070000001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>36084.71340000001</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>7501.007300000005</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>7501.007300000005</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>6645.754900000004</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>6645.754900000004</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>7058.042700000005</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>7058.042700000005</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>7058.042700000005</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>6865.115900000004</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>6887.723900000005</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>16385.8095</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>16385.8095</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>16143.9673</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>8829.778000000004</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>8829.778000000004</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>8829.778000000004</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>8829.778000000004</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>8943.778000000004</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-6614.754099999996</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-10417.8383</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-14 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-14 KNC ohlcv.xlsx
@@ -1120,7 +1120,7 @@
         <v>-49634.7026</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-50086.21079999999</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-50239.71079999999</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-50236.38289999999</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-41086.78149999999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-44077.98999999999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-43169.85389999999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-43903.07339999999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-43500.06169999998</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-43181.55359999998</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-59633.52449999998</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-59628.87329999998</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-58495.73639999999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-63128.51089999999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-62930.37899999999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-63485.52129999999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-63485.52129999999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-63237.52129999999</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-63896.18729999998</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-59064.48099999999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-52548.08139999999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-50572.89309999999</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-50572.89309999999</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-36163.68769999999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-36163.68769999999</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-36163.68769999999</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-36163.68769999999</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-38613.99299999999</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-37147.82829999999</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>20192.43070000001</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>36084.71340000001</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>6645.754900000004</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>6645.754900000004</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>7058.042700000005</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>7058.042700000005</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>7058.042700000005</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>6865.115900000004</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>6887.723900000005</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>16385.8095</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>16385.8095</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>16143.9673</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>8829.778000000004</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>8829.778000000004</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>8829.778000000004</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>8829.778000000004</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>8943.778000000004</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-162643.9788</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
